--- a/output_cds/university of minnesota – twin cities campus.xlsx
+++ b/output_cds/university of minnesota – twin cities campus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,70 +521,85 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>general_college_subjects.history</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>general_college_subjects.electives</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>general_college_subjects.cs</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>general_college_subjects.arts</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.sat_or_act</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.sat only</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.act only</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.in-state</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.out-of-state</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.international</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.others</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.25th</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.50th</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.75th</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>act scores.25th</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>act scores.50th</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>act scores.75th</t>
         </is>
@@ -604,37 +619,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>not considered</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>very important</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -661,43 +676,52 @@
         <v>3</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="S2" t="b">
+      <c r="V2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" t="b">
+      <c r="W2" t="b">
         <v>0</v>
       </c>
-      <c r="U2" t="b">
+      <c r="X2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>0.7508224860534973</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>0.7913262422280458</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>0.7818471337579618</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>1328</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>1400</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>1460</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>27</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>29</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>31</v>
       </c>
     </row>

--- a/output_cds/university of minnesota – twin cities campus.xlsx
+++ b/output_cds/university of minnesota – twin cities campus.xlsx
@@ -1,37 +1,210 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotori-data\output_cds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D1CC5F-3E42-4483-994D-35214FB380A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>high_school_completion_required</t>
+  </si>
+  <si>
+    <t>general_college_preparatory_required</t>
+  </si>
+  <si>
+    <t>rigor_of_secondary_school_record</t>
+  </si>
+  <si>
+    <t>class_rank</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t>standardized_test_scores</t>
+  </si>
+  <si>
+    <t>application_essay</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>extracurricular_activities</t>
+  </si>
+  <si>
+    <t>talent_ability</t>
+  </si>
+  <si>
+    <t>character_personal_qualities</t>
+  </si>
+  <si>
+    <t>geographical_residence</t>
+  </si>
+  <si>
+    <t>religious_affiliation_commitment</t>
+  </si>
+  <si>
+    <t>work_experience</t>
+  </si>
+  <si>
+    <t>level_of_applicant_interest</t>
+  </si>
+  <si>
+    <t>alumni_importance</t>
+  </si>
+  <si>
+    <t>first_generation_importance</t>
+  </si>
+  <si>
+    <t>residency_importance</t>
+  </si>
+  <si>
+    <t>sat_act_importance</t>
+  </si>
+  <si>
+    <t>gpa_importance</t>
+  </si>
+  <si>
+    <t>volunteer_work_importance</t>
+  </si>
+  <si>
+    <t>state.State</t>
+  </si>
+  <si>
+    <t>general_college_subjects.english</t>
+  </si>
+  <si>
+    <t>general_college_subjects.math</t>
+  </si>
+  <si>
+    <t>general_college_subjects.science</t>
+  </si>
+  <si>
+    <t>general_college_subjects.scienceLab</t>
+  </si>
+  <si>
+    <t>general_college_subjects.language</t>
+  </si>
+  <si>
+    <t>general_college_subjects.social</t>
+  </si>
+  <si>
+    <t>general_college_subjects.history</t>
+  </si>
+  <si>
+    <t>general_college_subjects.electives</t>
+  </si>
+  <si>
+    <t>general_college_subjects.cs</t>
+  </si>
+  <si>
+    <t>general_college_subjects.arts</t>
+  </si>
+  <si>
+    <t>sat_act_required.sat_or_act</t>
+  </si>
+  <si>
+    <t>sat_act_required.sat only</t>
+  </si>
+  <si>
+    <t>sat_act_required.act only</t>
+  </si>
+  <si>
+    <t>residency_acceptance.in-state</t>
+  </si>
+  <si>
+    <t>residency_acceptance.out-of-state</t>
+  </si>
+  <si>
+    <t>residency_acceptance.international</t>
+  </si>
+  <si>
+    <t>residency_acceptance.others</t>
+  </si>
+  <si>
+    <t>sat_scores.25th</t>
+  </si>
+  <si>
+    <t>sat_scores.50th</t>
+  </si>
+  <si>
+    <t>sat_scores.75th</t>
+  </si>
+  <si>
+    <t>act scores.25th</t>
+  </si>
+  <si>
+    <t>act scores.50th</t>
+  </si>
+  <si>
+    <t>act scores.75th</t>
+  </si>
+  <si>
+    <t>university of minnesota – twin cities campus</t>
+  </si>
+  <si>
+    <t>very important</t>
+  </si>
+  <si>
+    <t>considered</t>
+  </si>
+  <si>
+    <t>not considered</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +219,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,196 +543,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>high_school_completion_required</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_preparatory_required</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>alumni_importance</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>first_generation_importance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>residency_importance</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sat_act_importance</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gpa_importance</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>volunteer_work</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>work_experience</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>state.State</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.english</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.math</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.science</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.scienceLab</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.language</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.social</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.history</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.electives</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.cs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>general_college_subjects.arts</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>sat_act_required.sat_or_act</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>sat_act_required.sat only</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>sat_act_required.act only</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>residency_acceptance.in-state</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>residency_acceptance.out-of-state</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>residency_acceptance.international</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>residency_acceptance.others</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>sat_scores.25th</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>sat_scores.50th</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>sat_scores.75th</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>act scores.25th</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>act scores.50th</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>act scores.75th</t>
-        </is>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>university of minnesota – twin cities campus</t>
-        </is>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -617,115 +702,138 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>not considered</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>very important</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Y2">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AC2">
         <v>3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AD2">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AE2">
         <v>0</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AF2">
         <v>0</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AG2">
         <v>1</v>
       </c>
-      <c r="V2" t="b">
+      <c r="AH2" t="b">
         <v>0</v>
       </c>
-      <c r="W2" t="b">
+      <c r="AI2" t="b">
         <v>0</v>
       </c>
-      <c r="X2" t="b">
+      <c r="AJ2" t="b">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.7508224860534973</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.7913262422280458</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.7818471337579618</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
+      <c r="AK2">
+        <v>0.75082248605349733</v>
+      </c>
+      <c r="AL2">
+        <v>0.79132624222804582</v>
+      </c>
+      <c r="AM2">
+        <v>0.78184713375796178</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>1328</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AP2">
         <v>1400</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AQ2">
         <v>1460</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AR2">
         <v>27</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AS2">
         <v>29</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AT2">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>